--- a/Results_May_15_mostrecentupdateMay22/coral_cc.xlsx
+++ b/Results_May_15_mostrecentupdateMay22/coral_cc.xlsx
@@ -40,34 +40,34 @@
     <t>Cum.Wt</t>
   </si>
   <si>
-    <t>cc_yr</t>
-  </si>
-  <si>
-    <t>cc_yr_yrxcc</t>
-  </si>
-  <si>
-    <t>cc_yr_site</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>cc_site</t>
-  </si>
-  <si>
-    <t>cc_site_sitexcc</t>
-  </si>
-  <si>
     <t>site</t>
   </si>
   <si>
-    <t>yr_site</t>
-  </si>
-  <si>
-    <t>yr_site_yrxsite</t>
-  </si>
-  <si>
-    <t>yr</t>
+    <t>coralcover</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>coralcover + year</t>
+  </si>
+  <si>
+    <t>coralcover + year + year*coralcover</t>
+  </si>
+  <si>
+    <t>coralcover + year + site</t>
+  </si>
+  <si>
+    <t>coralcover + site</t>
+  </si>
+  <si>
+    <t>coralcover + site + site*coralcover</t>
+  </si>
+  <si>
+    <t>year + site</t>
+  </si>
+  <si>
+    <t>year + site + year*site</t>
   </si>
 </sst>
 </file>
@@ -945,13 +945,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="A1:H11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
@@ -989,7 +987,7 @@
     </row>
     <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1">
         <v>4</v>
@@ -1015,7 +1013,7 @@
     </row>
     <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1">
         <v>5</v>
@@ -1041,7 +1039,7 @@
     </row>
     <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1">
         <v>11</v>
@@ -1067,7 +1065,7 @@
     </row>
     <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -1093,7 +1091,7 @@
     </row>
     <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
         <v>10</v>
@@ -1119,7 +1117,7 @@
     </row>
     <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1">
         <v>17</v>
@@ -1145,7 +1143,7 @@
     </row>
     <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
         <v>9</v>
@@ -1171,7 +1169,7 @@
     </row>
     <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1">
         <v>10</v>
@@ -1197,7 +1195,7 @@
     </row>
     <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1">
         <v>17</v>
@@ -1223,7 +1221,7 @@
     </row>
     <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>3</v>
